--- a/Files information.xlsx
+++ b/Files information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\PRIVATE\UNI\SIT 764\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\PRIVATE\UNI\SIT782 PROJECT\2019 HANDOVER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B85F6D-A982-483F-925B-2AED61F5A95F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E024A-DB26-49D0-97C2-A85CF9FC1C90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{3CFD4100-DE92-48A2-AA45-3FC8709EC16B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CFD4100-DE92-48A2-AA45-3FC8709EC16B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>aboutus.php</t>
   </si>
@@ -48,15 +48,6 @@
     <t>auth.php</t>
   </si>
   <si>
-    <t>bs1_sysdepass.php</t>
-  </si>
-  <si>
-    <t>bs2_bia.php</t>
-  </si>
-  <si>
-    <t>bs3_bcp.php</t>
-  </si>
-  <si>
     <t>contactus.php</t>
   </si>
   <si>
@@ -72,18 +63,6 @@
     <t>forgotlogon.php</t>
   </si>
   <si>
-    <t>get_clinical.php</t>
-  </si>
-  <si>
-    <t>get_clinical_func.php</t>
-  </si>
-  <si>
-    <t>get_dependance.php</t>
-  </si>
-  <si>
-    <t>get_function.php</t>
-  </si>
-  <si>
     <t>head.php</t>
   </si>
   <si>
@@ -120,9 +99,6 @@
     <t>selfcare.php</t>
   </si>
   <si>
-    <t>services.php</t>
-  </si>
-  <si>
     <t>view.php</t>
   </si>
   <si>
@@ -147,15 +123,6 @@
     <t>Is a commonly called php code that tests to see if the logged in user has a valid session going, if not kick them back to logon.php</t>
   </si>
   <si>
-    <t>This is the PRE-BIA form that gets the user to select the System/Category-Function/Business Unit-Program-Clinical units and the associated activity and dependancys</t>
-  </si>
-  <si>
-    <t>This is the BIA form that users will use to produce the Business impact assessment</t>
-  </si>
-  <si>
-    <t>This is the BCP form that the user will fill out</t>
-  </si>
-  <si>
     <t>This is part of the footer sub menu to contact the business/admins</t>
   </si>
   <si>
@@ -171,18 +138,6 @@
     <t>This menu does two things: Displays a form to send a recovery email, the other is listens to see if the form has been submitted and to take appropriate actions based on the input.</t>
   </si>
   <si>
-    <t>THIS gets the list of sub programs AKA clinical programs and fills out the html options for the bs1_sysdepass.php file</t>
-  </si>
-  <si>
-    <t>THIS GETS THE CATAGORY AND FUNCTIONS IN THE SYSTEM_REGISTER TABLE AND RETURNS IT TO THE bs1_sysdepass.php file</t>
-  </si>
-  <si>
-    <t>This GETS the Dependance description for the bs1_sysdepass.php when the user chooses a html select dropdown and displays it in a disabled textarea box</t>
-  </si>
-  <si>
-    <t>This gets the system function based on the category and creates a html select menu for ajax insertion into the bs1_sysdepass.php file</t>
-  </si>
-  <si>
     <t>This is the default HTML head file and contains common data for the head excluding the HTML title. CONTAINS BOOTSTRAP links</t>
   </si>
   <si>
@@ -201,9 +156,6 @@
     <t>This is a sub menu footer file to display projects !!</t>
   </si>
   <si>
-    <t>This is a called php file via AJAX from the bs1_sysdepass.php, which is called when the user presses the submit file to push a new custom 'activity' to the dB for re-use</t>
-  </si>
-  <si>
     <t>This is part of the EMAIL / USER password recovery system which generates a hash code that is emailed to the user to confirm their ID and renews their password</t>
   </si>
   <si>
@@ -214,9 +166,6 @@
   </si>
   <si>
     <t>This is a menu that allows a user to edit their personal info.</t>
-  </si>
-  <si>
-    <t>This is a footer sub-menu item to show services.!!</t>
   </si>
   <si>
     <t>This is to display BCP's</t>
@@ -224,13 +173,202 @@
   <si>
     <t>This contains more BOOTSTRAP links  AS WELL AS JQUERY-SLIM v3.3.1 and popper(Easily position tooltips, popovers or anything
 with just a line of code!)</t>
+  </si>
+  <si>
+    <t>editbcp.php</t>
+  </si>
+  <si>
+    <t>get_activities.php</t>
+  </si>
+  <si>
+    <t>get_add_activity.php</t>
+  </si>
+  <si>
+    <t>get_addnew_clinical.php</t>
+  </si>
+  <si>
+    <t>get_addnew_system.php</t>
+  </si>
+  <si>
+    <t>get_add_program.php</t>
+  </si>
+  <si>
+    <t>get_clinical_program.php</t>
+  </si>
+  <si>
+    <t>get_clinicalunit.php</t>
+  </si>
+  <si>
+    <t>get_delete_activity.php</t>
+  </si>
+  <si>
+    <t>get_delete_clinical.php</t>
+  </si>
+  <si>
+    <t>get_delete_program.php</t>
+  </si>
+  <si>
+    <t>get_delete_system.php</t>
+  </si>
+  <si>
+    <t>get_dependancy_ratings.php</t>
+  </si>
+  <si>
+    <t>get_existingbcp_full.php</t>
+  </si>
+  <si>
+    <t>get_existingbcp_id.php</t>
+  </si>
+  <si>
+    <t>get_impact_reference.php</t>
+  </si>
+  <si>
+    <t>get_mtpd_by_id.php</t>
+  </si>
+  <si>
+    <t>get_mtpd.php</t>
+  </si>
+  <si>
+    <t>get_option_programs.php</t>
+  </si>
+  <si>
+    <t>get_programs.php</t>
+  </si>
+  <si>
+    <t>get_rename_activities.php</t>
+  </si>
+  <si>
+    <t>get_rename_clinical.php</t>
+  </si>
+  <si>
+    <t>get_rename_program.php</t>
+  </si>
+  <si>
+    <t>get_rename_system.php</t>
+  </si>
+  <si>
+    <t>get_system_clinical.php</t>
+  </si>
+  <si>
+    <t>get_system_option.php</t>
+  </si>
+  <si>
+    <t>get_update_activities.php</t>
+  </si>
+  <si>
+    <t>get_update_clinical.php</t>
+  </si>
+  <si>
+    <t>get_update_system.php</t>
+  </si>
+  <si>
+    <t>newedit.php</t>
+  </si>
+  <si>
+    <t>submitbcp.php</t>
+  </si>
+  <si>
+    <t>viewbcp.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is called by the view.php file </t>
+  </si>
+  <si>
+    <t>This file makes a decision on if the data it receives is to do an update or a new insert to the bcp table.</t>
+  </si>
+  <si>
+    <t>This file is the main page that both allows a user to create a new bcp or ideally edit an existing bcp.</t>
+  </si>
+  <si>
+    <t>This gets the user activities from the database</t>
+  </si>
+  <si>
+    <t>This adds activities to the database</t>
+  </si>
+  <si>
+    <t>This adds a program to the database</t>
+  </si>
+  <si>
+    <t>This adds a new clinical unit to the database</t>
+  </si>
+  <si>
+    <t>This adds a new system to the database</t>
+  </si>
+  <si>
+    <t>This gets the associated program for a given clinical unit</t>
+  </si>
+  <si>
+    <t>This gets a clinical unit</t>
+  </si>
+  <si>
+    <t>This deletes an activity in the databse</t>
+  </si>
+  <si>
+    <t>This deletes a clinical unit in the dB</t>
+  </si>
+  <si>
+    <t>This deletes a program in the dB</t>
+  </si>
+  <si>
+    <t>This deletes a system in the dB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This gets the full dependancy ratings for an option box </t>
+  </si>
+  <si>
+    <t>This returns the id of a bcp based on clinical unit/activity and system</t>
+  </si>
+  <si>
+    <t>This returns a BCP via JSON based on a supplied BCP id</t>
+  </si>
+  <si>
+    <t>This returns the full impact refence info</t>
+  </si>
+  <si>
+    <t>This returns a static table in the dB with MTPD (BCP ) set data</t>
+  </si>
+  <si>
+    <t>This returns MTDP info based on a give id</t>
+  </si>
+  <si>
+    <t>This retruns the programs</t>
+  </si>
+  <si>
+    <t>This returns the programs and id based on program name in ascending order</t>
+  </si>
+  <si>
+    <t>This renames an activity</t>
+  </si>
+  <si>
+    <t>This renames a clinical unit</t>
+  </si>
+  <si>
+    <t>This renames a program</t>
+  </si>
+  <si>
+    <t>This renames a system</t>
+  </si>
+  <si>
+    <t>This gets the clinical unit based on id</t>
+  </si>
+  <si>
+    <t>This gets all systems in ascending order</t>
+  </si>
+  <si>
+    <t>This updates an existing activities in the database</t>
+  </si>
+  <si>
+    <t>This updates an existing clinical programs</t>
+  </si>
+  <si>
+    <t>This updates the existing system.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +396,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,13 +448,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63214AE7-EA89-4BE8-AC46-92686E4C0333}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A12" sqref="A2:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,261 +781,450 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="43" spans="1:2" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
+    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>